--- a/output/1Y_P96_KFSDIV.xlsx
+++ b/output/1Y_P96_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.2688</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.4938</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="F3" s="1">
-        <v>952.9435999999999</v>
+        <v>951.0404</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0219</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.5481</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E4" s="1">
-        <v>1926.7673</v>
+        <v>1922.9144</v>
       </c>
       <c r="F4" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="H4" s="1">
-        <v>20323.7338</v>
+        <v>20242.5199</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20323.7338</v>
+        <v>20242.5199</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3801</v>
+        <v>10.4009</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0052</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.3262</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E5" s="1">
-        <v>2874.8053</v>
+        <v>2869.0598</v>
       </c>
       <c r="F5" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="H5" s="1">
-        <v>29685.8145</v>
+        <v>29567.0959</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29685.8145</v>
+        <v>29567.0959</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4355</v>
+        <v>10.4564</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>433.5226</v>
+        <v>432.6557</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9566.4774</v>
+        <v>-9567.344300000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.021</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.462</v>
       </c>
       <c r="C6" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D6" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E6" s="1">
-        <v>3843.2158</v>
+        <v>3835.5329</v>
       </c>
       <c r="F6" s="1">
-        <v>961.0199</v>
+        <v>959.0844</v>
       </c>
       <c r="H6" s="1">
-        <v>40207.7232</v>
+        <v>40047.1821</v>
       </c>
       <c r="I6" s="1">
-        <v>433.5226</v>
+        <v>432.6557</v>
       </c>
       <c r="J6" s="1">
-        <v>40641.2458</v>
+        <v>40479.8379</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.408</v>
+        <v>10.4288</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10054.1903</v>
+        <v>-10054.082</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0241</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.5775</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E7" s="1">
-        <v>4804.2357</v>
+        <v>4794.6173</v>
       </c>
       <c r="F7" s="1">
-        <v>950.5261</v>
+        <v>948.6146</v>
       </c>
       <c r="H7" s="1">
-        <v>50816.8027</v>
+        <v>50613.4184</v>
       </c>
       <c r="I7" s="1">
-        <v>379.3323</v>
+        <v>378.5738</v>
       </c>
       <c r="J7" s="1">
-        <v>51196.135</v>
+        <v>50991.9922</v>
       </c>
       <c r="K7" s="1">
-        <v>50054.1903</v>
+        <v>50054.082</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4188</v>
+        <v>10.4396</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10054.1903</v>
+        <v>-10054.082</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.011</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.7066</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E8" s="1">
-        <v>5754.7618</v>
+        <v>5743.2319</v>
       </c>
       <c r="F8" s="1">
-        <v>939.0647</v>
+        <v>937.1727</v>
       </c>
       <c r="H8" s="1">
-        <v>61613.9328</v>
+        <v>61367.5817</v>
       </c>
       <c r="I8" s="1">
-        <v>325.142</v>
+        <v>324.4918</v>
       </c>
       <c r="J8" s="1">
-        <v>61939.0748</v>
+        <v>61692.0735</v>
       </c>
       <c r="K8" s="1">
-        <v>60108.3807</v>
+        <v>60108.1639</v>
       </c>
       <c r="L8" s="1">
-        <v>10.445</v>
+        <v>10.4659</v>
       </c>
       <c r="M8" s="1">
         <v>0.2</v>
       </c>
       <c r="N8" s="1">
-        <v>864.7624</v>
+        <v>863.0311</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9189.427900000001</v>
+        <v>-9191.0509</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0121</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.1511</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E9" s="1">
-        <v>6693.8265</v>
+        <v>6680.4046</v>
       </c>
       <c r="F9" s="1">
-        <v>917.1421</v>
+        <v>915.2627</v>
       </c>
       <c r="H9" s="1">
-        <v>74643.52899999999</v>
+        <v>74344.8864</v>
       </c>
       <c r="I9" s="1">
-        <v>1135.7141</v>
+        <v>1133.4409</v>
       </c>
       <c r="J9" s="1">
-        <v>75779.24310000001</v>
+        <v>75478.32739999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70162.571</v>
+        <v>70162.24589999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4817</v>
+        <v>10.5027</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10227.1428</v>
+        <v>-10226.6882</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0534</v>
+        <v>0.0528</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.5294</v>
       </c>
       <c r="C10" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D10" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E10" s="1">
-        <v>7610.9686</v>
+        <v>7595.6673</v>
       </c>
       <c r="F10" s="1">
-        <v>887.0413</v>
+        <v>885.2359</v>
       </c>
       <c r="H10" s="1">
-        <v>87749.9013</v>
+        <v>87398.02680000001</v>
       </c>
       <c r="I10" s="1">
-        <v>908.5713</v>
+        <v>906.7528</v>
       </c>
       <c r="J10" s="1">
-        <v>88658.4725</v>
+        <v>88304.7795</v>
       </c>
       <c r="K10" s="1">
-        <v>80389.7138</v>
+        <v>80388.9341</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5623</v>
+        <v>10.5835</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10227.1428</v>
+        <v>-10226.6882</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0336</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E11" s="1">
-        <v>8498.009899999999</v>
+        <v>8480.903200000001</v>
       </c>
       <c r="F11" s="1">
-        <v>937.1008</v>
+        <v>935.1825</v>
       </c>
       <c r="H11" s="1">
-        <v>92743.8809</v>
+        <v>92372.302</v>
       </c>
       <c r="I11" s="1">
-        <v>681.4284</v>
+        <v>680.0646</v>
       </c>
       <c r="J11" s="1">
-        <v>93425.30929999999</v>
+        <v>93052.36659999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90616.8566</v>
+        <v>90615.6223</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6633</v>
+        <v>10.6847</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3424.9359</v>
+        <v>3418.0503</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6802.2069</v>
+        <v>-6808.6379</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.053</v>
+        <v>-0.0534</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.2587</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E12" s="1">
-        <v>9435.110699999999</v>
+        <v>9416.0857</v>
       </c>
       <c r="F12" s="1">
-        <v>1060.4786</v>
+        <v>1058.0087</v>
       </c>
       <c r="H12" s="1">
-        <v>106226.1369</v>
+        <v>105801.0226</v>
       </c>
       <c r="I12" s="1">
-        <v>3879.2215</v>
+        <v>3871.4267</v>
       </c>
       <c r="J12" s="1">
-        <v>110105.3584</v>
+        <v>109672.4493</v>
       </c>
       <c r="K12" s="1">
-        <v>100843.9994</v>
+        <v>100842.3105</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6882</v>
+        <v>10.7096</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11939.6107</v>
+        <v>-11935.7133</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0646</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.6434</v>
       </c>
       <c r="C13" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D13" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E13" s="1">
-        <v>10495.5893</v>
+        <v>10474.0944</v>
       </c>
       <c r="F13" s="1">
-        <v>1025.4402</v>
+        <v>1023.0582</v>
       </c>
       <c r="H13" s="1">
-        <v>122204.3443</v>
+        <v>121710.0246</v>
       </c>
       <c r="I13" s="1">
-        <v>1939.6107</v>
+        <v>1935.7133</v>
       </c>
       <c r="J13" s="1">
-        <v>124143.9551</v>
+        <v>123645.738</v>
       </c>
       <c r="K13" s="1">
-        <v>112783.6102</v>
+        <v>112778.0238</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7458</v>
+        <v>10.7673</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11939.6107</v>
+        <v>-11935.7133</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0336</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>11.3141</v>
       </c>
       <c r="C14" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D14" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E14" s="1">
-        <v>11521.0295</v>
+        <v>11497.1526</v>
       </c>
       <c r="F14" s="1">
-        <v>-11521.0295</v>
+        <v>-11497.1526</v>
       </c>
       <c r="H14" s="1">
-        <v>130350.08</v>
+        <v>129820.0991</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>130350.08</v>
+        <v>129820.0991</v>
       </c>
       <c r="K14" s="1">
-        <v>124723.2209</v>
+        <v>124713.7371</v>
       </c>
       <c r="L14" s="1">
-        <v>10.8257</v>
+        <v>10.8474</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3778.4121</v>
+        <v>3770.674</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134128.4922</v>
+        <v>133590.7731</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0283</v>
+        <v>-0.0286</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1384,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>10.2688</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.4938</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="F3" s="1">
-        <v>932.0637</v>
+        <v>937.835</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9780.8897</v>
+        <v>-9861.1474</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0219</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.5481</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E4" s="1">
-        <v>1905.8873</v>
+        <v>1909.709</v>
       </c>
       <c r="F4" s="1">
-        <v>938.2268</v>
+        <v>940.1058</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20103.4897</v>
+        <v>20103.5062</v>
       </c>
       <c r="I4" s="1">
-        <v>219.1103</v>
+        <v>138.8526</v>
       </c>
       <c r="J4" s="1">
-        <v>20322.6</v>
+        <v>20242.3588</v>
       </c>
       <c r="K4" s="1">
-        <v>19780.8897</v>
+        <v>19861.1474</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3788</v>
+        <v>10.4001</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9896.5103</v>
+        <v>-9936.1662</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0051</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.3262</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E5" s="1">
-        <v>2844.1141</v>
+        <v>2849.8148</v>
       </c>
       <c r="F5" s="1">
-        <v>999.6514</v>
+        <v>986.0621</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29368.8911</v>
+        <v>29368.766</v>
       </c>
       <c r="I5" s="1">
-        <v>322.6</v>
+        <v>202.6864</v>
       </c>
       <c r="J5" s="1">
-        <v>29691.4911</v>
+        <v>29571.4524</v>
       </c>
       <c r="K5" s="1">
-        <v>29677.4</v>
+        <v>29797.3136</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4347</v>
+        <v>10.4559</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>428.8246</v>
+        <v>429.6845</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9893.7754</v>
+        <v>-9773.001899999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0208</v>
+        <v>-0.0222</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.462</v>
       </c>
       <c r="C6" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D6" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E6" s="1">
-        <v>3843.7655</v>
+        <v>3835.8769</v>
       </c>
       <c r="F6" s="1">
-        <v>935.4354</v>
+        <v>952.8905999999999</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40213.4744</v>
+        <v>40050.7743</v>
       </c>
       <c r="I6" s="1">
-        <v>428.8246</v>
+        <v>429.6845</v>
       </c>
       <c r="J6" s="1">
-        <v>40642.2991</v>
+        <v>40480.4589</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4065</v>
+        <v>10.4279</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9786.525600000001</v>
+        <v>-9989.1518</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.5775</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E7" s="1">
-        <v>4779.2009</v>
+        <v>4788.7675</v>
       </c>
       <c r="F7" s="1">
-        <v>893.217</v>
+        <v>895.0422</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50551.9977</v>
+        <v>50551.666</v>
       </c>
       <c r="I7" s="1">
-        <v>642.2991</v>
+        <v>440.5327</v>
       </c>
       <c r="J7" s="1">
-        <v>51194.2968</v>
+        <v>50992.1988</v>
       </c>
       <c r="K7" s="1">
-        <v>49786.5256</v>
+        <v>49989.1518</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4173</v>
+        <v>10.4388</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9448.0023</v>
+        <v>-9486.283799999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0109</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.7066</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E8" s="1">
-        <v>5672.4179</v>
+        <v>5683.8097</v>
       </c>
       <c r="F8" s="1">
-        <v>865.6054</v>
+        <v>867.3078</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60732.3091</v>
+        <v>60732.6431</v>
       </c>
       <c r="I8" s="1">
-        <v>1194.2968</v>
+        <v>954.249</v>
       </c>
       <c r="J8" s="1">
-        <v>61926.6059</v>
+        <v>61686.892</v>
       </c>
       <c r="K8" s="1">
-        <v>59234.5279</v>
+        <v>59475.4355</v>
       </c>
       <c r="L8" s="1">
-        <v>10.4426</v>
+        <v>10.464</v>
       </c>
       <c r="M8" s="1">
         <v>0.2</v>
       </c>
       <c r="N8" s="1">
-        <v>860.2562</v>
+        <v>861.9781</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8407.4347</v>
+        <v>-8442.586300000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.012</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.1511</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E9" s="1">
-        <v>6538.0233</v>
+        <v>6551.1174</v>
       </c>
       <c r="F9" s="1">
-        <v>636.1569</v>
+        <v>637.4384</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72906.1513</v>
+        <v>72906.0757</v>
       </c>
       <c r="I9" s="1">
-        <v>2786.8621</v>
+        <v>2511.6627</v>
       </c>
       <c r="J9" s="1">
-        <v>75693.0134</v>
+        <v>75417.7384</v>
       </c>
       <c r="K9" s="1">
-        <v>68502.2187</v>
+        <v>68780</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4775</v>
+        <v>10.499</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7093.8487</v>
+        <v>-7122.4178</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0524</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.5294</v>
       </c>
       <c r="C10" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D10" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E10" s="1">
-        <v>7174.1801</v>
+        <v>7188.5558</v>
       </c>
       <c r="F10" s="1">
-        <v>631.9503</v>
+        <v>633.2462</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82713.9923</v>
+        <v>82713.6798</v>
       </c>
       <c r="I10" s="1">
-        <v>5693.0134</v>
+        <v>5389.2449</v>
       </c>
       <c r="J10" s="1">
-        <v>88407.0058</v>
+        <v>88102.9247</v>
       </c>
       <c r="K10" s="1">
-        <v>75596.0674</v>
+        <v>75902.4178</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5372</v>
+        <v>10.5588</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7286.0709</v>
+        <v>-7315.5762</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0317</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E11" s="1">
-        <v>7806.1304</v>
+        <v>7821.802</v>
       </c>
       <c r="F11" s="1">
-        <v>1356.7489</v>
+        <v>1359.4169</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>85192.9849</v>
+        <v>85193.5027</v>
       </c>
       <c r="I11" s="1">
-        <v>8406.9426</v>
+        <v>8073.6687</v>
       </c>
       <c r="J11" s="1">
-        <v>93599.92750000001</v>
+        <v>93267.17140000001</v>
       </c>
       <c r="K11" s="1">
-        <v>82882.1382</v>
+        <v>83217.9939</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6176</v>
+        <v>10.6392</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3228.3811</v>
+        <v>3234.8501</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11578.6341</v>
+        <v>-11631.0537</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0488</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.2587</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E12" s="1">
-        <v>9162.879300000001</v>
+        <v>9181.2189</v>
       </c>
       <c r="F12" s="1">
-        <v>607.4296000000001</v>
+        <v>608.5676999999999</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>103161.1934</v>
+        <v>103162.0118</v>
       </c>
       <c r="I12" s="1">
-        <v>6828.3085</v>
+        <v>6442.615</v>
       </c>
       <c r="J12" s="1">
-        <v>109989.5019</v>
+        <v>109604.6268</v>
       </c>
       <c r="K12" s="1">
-        <v>97689.15330000001</v>
+        <v>98083.89780000001</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6614</v>
+        <v>10.6831</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6838.8674</v>
+        <v>-6865.4346</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0617</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.6434</v>
       </c>
       <c r="C13" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D13" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E13" s="1">
-        <v>9770.3089</v>
+        <v>9789.786599999999</v>
       </c>
       <c r="F13" s="1">
-        <v>535.9589999999999</v>
+        <v>537.1469</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113759.6149</v>
+        <v>113758.2991</v>
       </c>
       <c r="I13" s="1">
-        <v>9989.441199999999</v>
+        <v>9577.180399999999</v>
       </c>
       <c r="J13" s="1">
-        <v>123749.056</v>
+        <v>123335.4795</v>
       </c>
       <c r="K13" s="1">
-        <v>104528.0207</v>
+        <v>104949.3324</v>
       </c>
       <c r="L13" s="1">
-        <v>10.6985</v>
+        <v>10.7203</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6240.3851</v>
+        <v>-6266.732</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0313</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>11.3141</v>
       </c>
       <c r="C14" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D14" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E14" s="1">
-        <v>10306.2679</v>
+        <v>10326.9335</v>
       </c>
       <c r="F14" s="1">
-        <v>-10306.2679</v>
+        <v>-10326.9335</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116606.146</v>
+        <v>116606.5697</v>
       </c>
       <c r="I14" s="1">
-        <v>13749.056</v>
+        <v>13310.4484</v>
       </c>
       <c r="J14" s="1">
-        <v>130355.202</v>
+        <v>129917.0181</v>
       </c>
       <c r="K14" s="1">
-        <v>110768.4058</v>
+        <v>111216.0644</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7477</v>
+        <v>10.7695</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3517.3112</v>
+        <v>3524.3232</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>120123.4572</v>
+        <v>120130.8928</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0254</v>
+        <v>-0.0256</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.2688</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.4938</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="F3" s="1">
-        <v>936.8284</v>
+        <v>942.6093</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9830.8897</v>
+        <v>-9911.347900000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0219</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.5481</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E4" s="1">
-        <v>1910.652</v>
+        <v>1914.4832</v>
       </c>
       <c r="F4" s="1">
-        <v>947.7064</v>
+        <v>949.6044000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20153.7484</v>
+        <v>20153.765</v>
       </c>
       <c r="I4" s="1">
-        <v>169.1103</v>
+        <v>88.6521</v>
       </c>
       <c r="J4" s="1">
-        <v>20322.8587</v>
+        <v>20242.4171</v>
       </c>
       <c r="K4" s="1">
-        <v>19830.8897</v>
+        <v>19911.3479</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3791</v>
+        <v>10.4004</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9996.5016</v>
+        <v>-10036.5583</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0051</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.3262</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E5" s="1">
-        <v>2858.3584</v>
+        <v>2864.0876</v>
       </c>
       <c r="F5" s="1">
-        <v>985.1261</v>
+        <v>971.5078</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29515.9803</v>
+        <v>29515.8546</v>
       </c>
       <c r="I5" s="1">
-        <v>172.6087</v>
+        <v>52.0938</v>
       </c>
       <c r="J5" s="1">
-        <v>29688.589</v>
+        <v>29567.9484</v>
       </c>
       <c r="K5" s="1">
-        <v>29827.3913</v>
+        <v>29947.9062</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4351</v>
+        <v>10.4564</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>429.8967</v>
+        <v>430.7587</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9742.712</v>
+        <v>-9621.3351</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0209</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.462</v>
       </c>
       <c r="C6" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D6" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E6" s="1">
-        <v>3843.4844</v>
+        <v>3835.5954</v>
       </c>
       <c r="F6" s="1">
-        <v>983.748</v>
+        <v>995.0166</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40210.5342</v>
+        <v>40047.8347</v>
       </c>
       <c r="I6" s="1">
-        <v>429.8967</v>
+        <v>430.7587</v>
       </c>
       <c r="J6" s="1">
-        <v>40640.4309</v>
+        <v>40478.5934</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4072</v>
+        <v>10.4286</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10291.9721</v>
+        <v>-10430.7587</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.5775</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E7" s="1">
-        <v>4827.2325</v>
+        <v>4830.6119</v>
       </c>
       <c r="F7" s="1">
-        <v>916.5651</v>
+        <v>924.7208000000001</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51060.0516</v>
+        <v>50993.3887</v>
       </c>
       <c r="I7" s="1">
-        <v>137.9246</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51197.9762</v>
+        <v>50993.3887</v>
       </c>
       <c r="K7" s="1">
-        <v>50291.9721</v>
+        <v>50430.7587</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4184</v>
+        <v>10.4398</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9694.967199999999</v>
+        <v>-9800.8382</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.011</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.7066</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E8" s="1">
-        <v>5743.7976</v>
+        <v>5755.3327</v>
       </c>
       <c r="F8" s="1">
-        <v>893.1174</v>
+        <v>894.8745</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61496.5431</v>
+        <v>61496.8812</v>
       </c>
       <c r="I8" s="1">
-        <v>442.9574</v>
+        <v>199.1618</v>
       </c>
       <c r="J8" s="1">
-        <v>61939.5005</v>
+        <v>61696.0429</v>
       </c>
       <c r="K8" s="1">
-        <v>59986.9393</v>
+        <v>60231.597</v>
       </c>
       <c r="L8" s="1">
-        <v>10.4438</v>
+        <v>10.4654</v>
       </c>
       <c r="M8" s="1">
         <v>0.2</v>
       </c>
       <c r="N8" s="1">
-        <v>868.9018</v>
+        <v>869.5101</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8693.349</v>
+        <v>-8730.7927</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0121</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.1511</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E9" s="1">
-        <v>6636.915</v>
+        <v>6650.2072</v>
       </c>
       <c r="F9" s="1">
-        <v>664.0767</v>
+        <v>665.4142000000001</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>74008.9026</v>
+        <v>74008.82580000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1749.6085</v>
+        <v>1468.3691</v>
       </c>
       <c r="J9" s="1">
-        <v>75758.5111</v>
+        <v>75477.1949</v>
       </c>
       <c r="K9" s="1">
-        <v>69549.19010000001</v>
+        <v>69831.8998</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4791</v>
+        <v>10.5007</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7405.1853</v>
+        <v>-7435.0061</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0531</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.5294</v>
       </c>
       <c r="C10" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D10" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E10" s="1">
-        <v>7300.9916</v>
+        <v>7315.6214</v>
       </c>
       <c r="F10" s="1">
-        <v>663.0965</v>
+        <v>664.4554000000001</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84176.053</v>
+        <v>84175.7349</v>
       </c>
       <c r="I10" s="1">
-        <v>4344.4232</v>
+        <v>4033.363</v>
       </c>
       <c r="J10" s="1">
-        <v>88520.4762</v>
+        <v>88209.098</v>
       </c>
       <c r="K10" s="1">
-        <v>76954.3753</v>
+        <v>77266.9059</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5403</v>
+        <v>10.5619</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7645.1716</v>
+        <v>-7676.1212</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0322</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E11" s="1">
-        <v>7964.0882</v>
+        <v>7980.0769</v>
       </c>
       <c r="F11" s="1">
-        <v>1407.729</v>
+        <v>1410.4981</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>86916.8728</v>
+        <v>86917.4011</v>
       </c>
       <c r="I11" s="1">
-        <v>6699.2516</v>
+        <v>6357.2418</v>
       </c>
       <c r="J11" s="1">
-        <v>93616.1244</v>
+        <v>93274.64290000001</v>
       </c>
       <c r="K11" s="1">
-        <v>84599.54700000001</v>
+        <v>84943.027</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6226</v>
+        <v>10.6444</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3285.4462</v>
+        <v>3292.0296</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12077.9451</v>
+        <v>-12132.4721</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0498</v>
+        <v>-0.0502</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.2587</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E12" s="1">
-        <v>9371.8172</v>
+        <v>9390.5749</v>
       </c>
       <c r="F12" s="1">
-        <v>646.4502</v>
+        <v>647.6645</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>105513.541</v>
+        <v>105514.3781</v>
       </c>
       <c r="I12" s="1">
-        <v>4621.3065</v>
+        <v>4224.7697</v>
       </c>
       <c r="J12" s="1">
-        <v>110134.8475</v>
+        <v>109739.1478</v>
       </c>
       <c r="K12" s="1">
-        <v>99962.93829999999</v>
+        <v>100367.5288</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6663</v>
+        <v>10.6881</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7278.189</v>
+        <v>-7306.497</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0629</v>
+        <v>0.0626</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.6434</v>
       </c>
       <c r="C13" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D13" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E13" s="1">
-        <v>10018.2674</v>
+        <v>10038.2394</v>
       </c>
       <c r="F13" s="1">
-        <v>576.2002</v>
+        <v>577.4716</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>116646.6947</v>
+        <v>116645.3455</v>
       </c>
       <c r="I13" s="1">
-        <v>7343.1175</v>
+        <v>6918.2727</v>
       </c>
       <c r="J13" s="1">
-        <v>123989.8122</v>
+        <v>123563.6182</v>
       </c>
       <c r="K13" s="1">
-        <v>107241.1273</v>
+        <v>107674.0258</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7046</v>
+        <v>10.7264</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6708.929</v>
+        <v>-6737.1884</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0321</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>11.3141</v>
       </c>
       <c r="C14" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D14" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E14" s="1">
-        <v>10594.4676</v>
+        <v>10615.711</v>
       </c>
       <c r="F14" s="1">
-        <v>-10594.4676</v>
+        <v>-10615.711</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119866.8656</v>
+        <v>119867.3011</v>
       </c>
       <c r="I14" s="1">
-        <v>10634.1885</v>
+        <v>10181.0843</v>
       </c>
       <c r="J14" s="1">
-        <v>130501.054</v>
+        <v>130048.3854</v>
       </c>
       <c r="K14" s="1">
-        <v>113950.0563</v>
+        <v>114411.2142</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7556</v>
+        <v>10.7775</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3606.5763</v>
+        <v>3613.7662</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123473.4418</v>
+        <v>123481.0673</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.026</v>
+        <v>-0.0263</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.2688</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.4938</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="F3" s="1">
-        <v>941.5931</v>
+        <v>947.3835</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9880.8897</v>
+        <v>-9961.5484</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0219</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.5481</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E4" s="1">
-        <v>1915.4167</v>
+        <v>1919.2575</v>
       </c>
       <c r="F4" s="1">
-        <v>957.2333</v>
+        <v>949.7835</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20204.0071</v>
+        <v>20204.0238</v>
       </c>
       <c r="I4" s="1">
-        <v>119.1103</v>
+        <v>38.4516</v>
       </c>
       <c r="J4" s="1">
-        <v>20323.1174</v>
+        <v>20242.4753</v>
       </c>
       <c r="K4" s="1">
-        <v>19880.8897</v>
+        <v>19961.5484</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3794</v>
+        <v>10.4007</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10096.9929</v>
+        <v>-10038.4516</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0051</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.3262</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E5" s="1">
-        <v>2872.6501</v>
+        <v>2869.041</v>
       </c>
       <c r="F5" s="1">
-        <v>970.5522999999999</v>
+        <v>966.473</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29663.559</v>
+        <v>29566.9019</v>
       </c>
       <c r="I5" s="1">
-        <v>22.1174</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29685.6764</v>
+        <v>29566.9019</v>
       </c>
       <c r="K5" s="1">
-        <v>29977.8826</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4356</v>
+        <v>10.4565</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>430.9688</v>
+        <v>431.8329</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9591.1487</v>
+        <v>-9568.167100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.021</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.462</v>
       </c>
       <c r="C6" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D6" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E6" s="1">
-        <v>3843.2024</v>
+        <v>3835.514</v>
       </c>
       <c r="F6" s="1">
-        <v>997.0339</v>
+        <v>995.119</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40207.5833</v>
+        <v>40046.9856</v>
       </c>
       <c r="I6" s="1">
-        <v>430.9688</v>
+        <v>431.8329</v>
       </c>
       <c r="J6" s="1">
-        <v>40638.552</v>
+        <v>40478.8186</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.408</v>
+        <v>10.4288</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10430.9688</v>
+        <v>-10431.8329</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.5775</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E7" s="1">
-        <v>4840.2363</v>
+        <v>4830.6331</v>
       </c>
       <c r="F7" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51197.5993</v>
+        <v>50993.612</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51197.5993</v>
+        <v>50993.612</v>
       </c>
       <c r="K7" s="1">
-        <v>50430.9688</v>
+        <v>50431.8329</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4191</v>
+        <v>10.44</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.011</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.7066</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E8" s="1">
-        <v>5785.6393</v>
+        <v>5774.145</v>
       </c>
       <c r="F8" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61944.5254</v>
+        <v>61697.8944</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61944.5254</v>
+        <v>61697.8944</v>
       </c>
       <c r="K8" s="1">
-        <v>60430.9688</v>
+        <v>60431.8329</v>
       </c>
       <c r="L8" s="1">
-        <v>10.445</v>
+        <v>10.4659</v>
       </c>
       <c r="M8" s="1">
         <v>0.2</v>
       </c>
       <c r="N8" s="1">
-        <v>871.2424999999999</v>
+        <v>869.514</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9128.7575</v>
+        <v>-9130.486000000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0122</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.1511</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E9" s="1">
-        <v>6719.6426</v>
+        <v>6706.2765</v>
       </c>
       <c r="F9" s="1">
-        <v>710.7190000000001</v>
+        <v>738.9741</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>74931.4065</v>
+        <v>74632.81020000001</v>
       </c>
       <c r="I9" s="1">
-        <v>871.2424999999999</v>
+        <v>869.514</v>
       </c>
       <c r="J9" s="1">
-        <v>75802.649</v>
+        <v>75502.3242</v>
       </c>
       <c r="K9" s="1">
-        <v>70430.9688</v>
+        <v>70431.83289999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4814</v>
+        <v>10.5024</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7925.2991</v>
+        <v>-8256.927600000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0536</v>
+        <v>0.0531</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.5294</v>
       </c>
       <c r="C10" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D10" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E10" s="1">
-        <v>7430.3616</v>
+        <v>7445.2507</v>
       </c>
       <c r="F10" s="1">
-        <v>695.4101000000001</v>
+        <v>696.8343</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85667.61139999999</v>
+        <v>85667.28780000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2945.9434</v>
+        <v>2612.5864</v>
       </c>
       <c r="J10" s="1">
-        <v>88613.5548</v>
+        <v>88279.8741</v>
       </c>
       <c r="K10" s="1">
-        <v>78356.26790000001</v>
+        <v>78688.7605</v>
       </c>
       <c r="L10" s="1">
-        <v>10.5454</v>
+        <v>10.569</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8017.7308</v>
+        <v>-8050.1787</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0328</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E11" s="1">
-        <v>8125.7717</v>
+        <v>8142.085</v>
       </c>
       <c r="F11" s="1">
-        <v>1367.8541</v>
+        <v>1331.6636</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88681.4224</v>
+        <v>88681.9614</v>
       </c>
       <c r="I11" s="1">
-        <v>4928.2126</v>
+        <v>4562.4077</v>
       </c>
       <c r="J11" s="1">
-        <v>93609.6351</v>
+        <v>93244.3692</v>
       </c>
       <c r="K11" s="1">
-        <v>86373.9987</v>
+        <v>86738.93919999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6296</v>
+        <v>10.6532</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3343.6627</v>
+        <v>3350.3628</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11584.5499</v>
+        <v>-11212.0449</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0507</v>
+        <v>-0.0512</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.2587</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E12" s="1">
-        <v>9493.6258</v>
+        <v>9473.748600000001</v>
       </c>
       <c r="F12" s="1">
-        <v>780.1512</v>
+        <v>820.5098</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>106884.936</v>
+        <v>106448.9345</v>
       </c>
       <c r="I12" s="1">
-        <v>3343.6627</v>
+        <v>3350.3628</v>
       </c>
       <c r="J12" s="1">
-        <v>110228.5987</v>
+        <v>109799.2973</v>
       </c>
       <c r="K12" s="1">
-        <v>101302.2113</v>
+        <v>101301.3469</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6706</v>
+        <v>10.6928</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8783.4887</v>
+        <v>-9256.4172</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0639</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.6434</v>
       </c>
       <c r="C13" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D13" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E13" s="1">
-        <v>10273.7771</v>
+        <v>10294.2584</v>
       </c>
       <c r="F13" s="1">
-        <v>618.6624</v>
+        <v>620.022</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>119621.6961</v>
+        <v>119620.3125</v>
       </c>
       <c r="I13" s="1">
-        <v>4560.174</v>
+        <v>4093.9456</v>
       </c>
       <c r="J13" s="1">
-        <v>124181.8701</v>
+        <v>123714.2581</v>
       </c>
       <c r="K13" s="1">
-        <v>110085.7</v>
+        <v>110557.7641</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7152</v>
+        <v>10.7398</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7203.334</v>
+        <v>-7233.6107</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0329</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>11.3141</v>
       </c>
       <c r="C14" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D14" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E14" s="1">
-        <v>10892.4395</v>
+        <v>10914.2804</v>
       </c>
       <c r="F14" s="1">
-        <v>-10892.4395</v>
+        <v>-10914.2804</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123238.1498</v>
+        <v>123238.5976</v>
       </c>
       <c r="I14" s="1">
-        <v>7356.84</v>
+        <v>6860.335</v>
       </c>
       <c r="J14" s="1">
-        <v>130594.9898</v>
+        <v>130098.9325</v>
       </c>
       <c r="K14" s="1">
-        <v>117289.034</v>
+        <v>117791.3747</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7679</v>
+        <v>10.7924</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3698.5597</v>
+        <v>3705.933</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126936.7096</v>
+        <v>126944.5306</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0267</v>
+        <v>-0.027</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.2688</v>
       </c>
       <c r="C2" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.4938</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E3" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="F3" s="1">
-        <v>946.3578</v>
+        <v>952.1578</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10219.1103</v>
+        <v>10178.2417</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9930.8897</v>
+        <v>-10011.7489</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0219</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.5481</v>
       </c>
       <c r="C4" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D4" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E4" s="1">
-        <v>1920.1814</v>
+        <v>1924.0318</v>
       </c>
       <c r="F4" s="1">
-        <v>954.59</v>
+        <v>945.0338</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20254.2659</v>
+        <v>20254.2825</v>
       </c>
       <c r="I4" s="1">
-        <v>69.1103</v>
+        <v>-11.7489</v>
       </c>
       <c r="J4" s="1">
-        <v>20323.3762</v>
+        <v>20242.5336</v>
       </c>
       <c r="K4" s="1">
-        <v>19930.8897</v>
+        <v>20011.7489</v>
       </c>
       <c r="L4" s="1">
-        <v>10.3797</v>
+        <v>10.4009</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10069.1103</v>
+        <v>-9988.251099999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0052</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.3262</v>
       </c>
       <c r="C5" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D5" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E5" s="1">
-        <v>2874.7714</v>
+        <v>2869.0656</v>
       </c>
       <c r="F5" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29685.4644</v>
+        <v>29567.1551</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29685.4644</v>
+        <v>29567.1551</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4356</v>
+        <v>10.4564</v>
       </c>
       <c r="M5" s="1">
         <v>0.25</v>
       </c>
       <c r="N5" s="1">
-        <v>432.0408</v>
+        <v>432.9071</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9567.959199999999</v>
+        <v>-9567.0929</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.021</v>
+        <v>-0.0223</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.462</v>
       </c>
       <c r="C6" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D6" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E6" s="1">
-        <v>3843.1818</v>
+        <v>3835.5386</v>
       </c>
       <c r="F6" s="1">
-        <v>997.1364</v>
+        <v>995.2215</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40207.3685</v>
+        <v>40047.2422</v>
       </c>
       <c r="I6" s="1">
-        <v>432.0408</v>
+        <v>432.9071</v>
       </c>
       <c r="J6" s="1">
-        <v>40639.4093</v>
+        <v>40480.1493</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.408</v>
+        <v>10.4288</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10432.0408</v>
+        <v>-10432.9071</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.024</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.5775</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E7" s="1">
-        <v>4840.3182</v>
+        <v>4830.7601</v>
       </c>
       <c r="F7" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51198.4661</v>
+        <v>50994.9531</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51198.4661</v>
+        <v>50994.9531</v>
       </c>
       <c r="K7" s="1">
-        <v>50432.0408</v>
+        <v>50432.9071</v>
       </c>
       <c r="L7" s="1">
-        <v>10.4192</v>
+        <v>10.44</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.011</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.7066</v>
       </c>
       <c r="C8" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D8" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E8" s="1">
-        <v>5785.7212</v>
+        <v>5774.2721</v>
       </c>
       <c r="F8" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61945.4027</v>
+        <v>61699.2519</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61945.4027</v>
+        <v>61699.2519</v>
       </c>
       <c r="K8" s="1">
-        <v>60432.0408</v>
+        <v>60432.9071</v>
       </c>
       <c r="L8" s="1">
-        <v>10.445</v>
+        <v>10.4659</v>
       </c>
       <c r="M8" s="1">
         <v>0.2</v>
       </c>
       <c r="N8" s="1">
-        <v>871.2573</v>
+        <v>869.5368</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9128.742700000001</v>
+        <v>-9130.4632</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0122</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.1511</v>
       </c>
       <c r="C9" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D9" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E9" s="1">
-        <v>6719.7245</v>
+        <v>6706.4036</v>
       </c>
       <c r="F9" s="1">
-        <v>842.6138</v>
+        <v>871.0883</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>74932.3202</v>
+        <v>74634.22410000001</v>
       </c>
       <c r="I9" s="1">
-        <v>871.2573</v>
+        <v>869.5368</v>
       </c>
       <c r="J9" s="1">
-        <v>75803.5775</v>
+        <v>75503.76089999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70432.0408</v>
+        <v>70432.9071</v>
       </c>
       <c r="L9" s="1">
-        <v>10.4814</v>
+        <v>10.5023</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9396.0708</v>
+        <v>-9733.104600000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0536</v>
+        <v>0.0531</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.5294</v>
       </c>
       <c r="C10" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D10" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E10" s="1">
-        <v>7562.3383</v>
+        <v>7577.4918</v>
       </c>
       <c r="F10" s="1">
-        <v>728.9272</v>
+        <v>730.4192</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>87189.2237</v>
+        <v>87188.8942</v>
       </c>
       <c r="I10" s="1">
-        <v>1475.1864</v>
+        <v>1136.4322</v>
       </c>
       <c r="J10" s="1">
-        <v>88664.41009999999</v>
+        <v>88325.32640000001</v>
       </c>
       <c r="K10" s="1">
-        <v>79828.11169999999</v>
+        <v>80166.01179999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.556</v>
+        <v>10.5795</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8404.1662</v>
+        <v>-8438.168100000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0333</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.9136</v>
       </c>
       <c r="C11" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D11" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E11" s="1">
-        <v>8291.2655</v>
+        <v>8307.911099999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1197.6818</v>
+        <v>1161.1965</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>90487.55560000001</v>
+        <v>90488.1056</v>
       </c>
       <c r="I11" s="1">
-        <v>3071.0203</v>
+        <v>2698.2641</v>
       </c>
       <c r="J11" s="1">
-        <v>93558.5759</v>
+        <v>93186.3697</v>
       </c>
       <c r="K11" s="1">
-        <v>88232.2778</v>
+        <v>88604.1799</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6416</v>
+        <v>10.665</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>3403.0523</v>
+        <v>3409.8713</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9667.968000000001</v>
+        <v>-9288.3928</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0517</v>
+        <v>-0.0523</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.2587</v>
       </c>
       <c r="C12" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D12" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E12" s="1">
-        <v>9488.947399999999</v>
+        <v>9469.1075</v>
       </c>
       <c r="F12" s="1">
-        <v>1048.1199</v>
+        <v>1088.9659</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>106832.2627</v>
+        <v>106396.786</v>
       </c>
       <c r="I12" s="1">
-        <v>3403.0523</v>
+        <v>3409.8713</v>
       </c>
       <c r="J12" s="1">
-        <v>110235.315</v>
+        <v>109806.6574</v>
       </c>
       <c r="K12" s="1">
-        <v>101303.2981</v>
+        <v>101302.444</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6759</v>
+        <v>10.6982</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11800.467</v>
+        <v>-12284.9513</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0645</v>
+        <v>0.06419999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.6434</v>
       </c>
       <c r="C13" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D13" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E13" s="1">
-        <v>10537.0672</v>
+        <v>10558.0735</v>
       </c>
       <c r="F13" s="1">
-        <v>663.451</v>
+        <v>664.9035</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>122687.2884</v>
+        <v>122685.8693</v>
       </c>
       <c r="I13" s="1">
-        <v>1602.5852</v>
+        <v>1124.9201</v>
       </c>
       <c r="J13" s="1">
-        <v>124289.8736</v>
+        <v>123810.7894</v>
       </c>
       <c r="K13" s="1">
-        <v>113103.7651</v>
+        <v>113587.3952</v>
       </c>
       <c r="L13" s="1">
-        <v>10.7339</v>
+        <v>10.7583</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7724.8259</v>
+        <v>-7757.2295</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0337</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>11.3141</v>
       </c>
       <c r="C14" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D14" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E14" s="1">
-        <v>11200.5183</v>
+        <v>11222.9769</v>
       </c>
       <c r="F14" s="1">
-        <v>-11200.5183</v>
+        <v>-11222.9769</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126723.7836</v>
+        <v>126724.2441</v>
       </c>
       <c r="I14" s="1">
-        <v>3877.7593</v>
+        <v>3367.6906</v>
       </c>
       <c r="J14" s="1">
-        <v>130601.543</v>
+        <v>130091.9347</v>
       </c>
       <c r="K14" s="1">
-        <v>120828.591</v>
+        <v>121344.6247</v>
       </c>
       <c r="L14" s="1">
-        <v>10.7878</v>
+        <v>10.8122</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3793.3442</v>
+        <v>3800.9064</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130517.1278</v>
+        <v>130525.1505</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0275</v>
+        <v>-0.0278</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.8257</v>
+        <v>10.8474</v>
       </c>
       <c r="D3" s="1">
-        <v>10.7477</v>
+        <v>10.7695</v>
       </c>
       <c r="E3" s="1">
-        <v>10.7556</v>
+        <v>10.7775</v>
       </c>
       <c r="F3" s="1">
-        <v>10.7679</v>
+        <v>10.7924</v>
       </c>
       <c r="G3" s="1">
-        <v>10.7878</v>
+        <v>10.8122</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.102</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1571</v>
+        <v>0.1446</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1559</v>
+        <v>0.1444</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1577</v>
+        <v>0.1461</v>
       </c>
       <c r="F4" s="3">
-        <v>0.159</v>
+        <v>0.1469</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1593</v>
+        <v>0.1471</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4539,16 +4539,16 @@
         <v>0.1124</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1064</v>
+        <v>0.1066</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1082</v>
+        <v>0.1085</v>
       </c>
       <c r="F5" s="3">
-        <v>0.11</v>
+        <v>0.1101</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1113</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.8504</v>
       </c>
       <c r="C6" s="4">
-        <v>1.2165</v>
+        <v>1.1059</v>
       </c>
       <c r="D6" s="4">
-        <v>1.2743</v>
+        <v>1.1641</v>
       </c>
       <c r="E6" s="4">
-        <v>1.2694</v>
+        <v>1.1594</v>
       </c>
       <c r="F6" s="4">
-        <v>1.2609</v>
+        <v>1.1496</v>
       </c>
       <c r="G6" s="4">
-        <v>1.2478</v>
+        <v>1.1367</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2272</v>
+        <v>0.2183</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2353</v>
+        <v>0.2269</v>
       </c>
       <c r="E7" s="3">
-        <v>0.235</v>
+        <v>0.2265</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2344</v>
+        <v>0.2256</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2331</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8501.633099999999</v>
+        <v>8484.411099999999</v>
       </c>
       <c r="D8" s="1">
-        <v>8034.7731</v>
+        <v>8050.8359</v>
       </c>
       <c r="E8" s="1">
-        <v>8190.8211</v>
+        <v>8206.064700000001</v>
       </c>
       <c r="F8" s="1">
-        <v>8344.433800000001</v>
+        <v>8357.6427</v>
       </c>
       <c r="G8" s="1">
-        <v>8499.694600000001</v>
+        <v>8513.2217</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P96_KFSDIV.xlsx
+++ b/output/1Y_P96_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>9467.3914</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0407</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1741</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1426</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1109</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
